--- a/src/Input_Files/province_names/Hungary_provinces.xlsx
+++ b/src/Input_Files/province_names/Hungary_provinces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\province_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316C502-B9D5-4DC3-B53A-2918CD8E9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6960A057-CC3E-4E67-A91E-C1D0B238D8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24090" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="778">
   <si>
     <t>RGB</t>
   </si>
@@ -646,9 +646,6 @@
     <t>(92, 84, 65)</t>
   </si>
   <si>
-    <t>(194, 208, 7)</t>
-  </si>
-  <si>
     <t>(231, 122, 16)</t>
   </si>
   <si>
@@ -1711,12 +1708,6 @@
     <t>hermannstadt</t>
   </si>
   <si>
-    <t>Aranyos</t>
-  </si>
-  <si>
-    <t>aranyos</t>
-  </si>
-  <si>
     <t>Sepsiszentgyörgy</t>
   </si>
   <si>
@@ -1798,10 +1789,571 @@
     <t>(203, 70, 29)</t>
   </si>
   <si>
+    <t>(144, 252, 18)</t>
+  </si>
+  <si>
+    <t>Szászrégen</t>
+  </si>
+  <si>
+    <t>szaszregen</t>
+  </si>
+  <si>
+    <t>Severin</t>
+  </si>
+  <si>
+    <t>severin</t>
+  </si>
+  <si>
+    <t>Târgu Jiu</t>
+  </si>
+  <si>
+    <t>targu_jiu</t>
+  </si>
+  <si>
+    <t>Craiova</t>
+  </si>
+  <si>
+    <t>craiova</t>
+  </si>
+  <si>
+    <t>Romanați</t>
+  </si>
+  <si>
+    <t>romanati</t>
+  </si>
+  <si>
+    <t>Vâlcea</t>
+  </si>
+  <si>
+    <t>valcea</t>
+  </si>
+  <si>
+    <t>Loviștei</t>
+  </si>
+  <si>
+    <t>lovistei</t>
+  </si>
+  <si>
+    <t>Calafat</t>
+  </si>
+  <si>
+    <t>calafat</t>
+  </si>
+  <si>
+    <t>Baia de Aramă</t>
+  </si>
+  <si>
+    <t>baia_de_arama</t>
+  </si>
+  <si>
+    <t>Tismana</t>
+  </si>
+  <si>
+    <t>tismana</t>
+  </si>
+  <si>
+    <t>(232, 158, 68)</t>
+  </si>
+  <si>
+    <t>(201, 64, 60)</t>
+  </si>
+  <si>
+    <t>(210, 226, 2)</t>
+  </si>
+  <si>
+    <t>(224, 241, 62)</t>
+  </si>
+  <si>
+    <t>(169, 64, 31)</t>
+  </si>
+  <si>
+    <t>(120, 235, 3)</t>
+  </si>
+  <si>
+    <t>(212, 57, 36)</t>
+  </si>
+  <si>
+    <t>(53, 182, 53)</t>
+  </si>
+  <si>
+    <t>(53, 154, 26)</t>
+  </si>
+  <si>
+    <t>Belső-Szolnok</t>
+  </si>
+  <si>
+    <t>belso_szolnok</t>
+  </si>
+  <si>
+    <t>Olt</t>
+  </si>
+  <si>
+    <t>Argeș</t>
+  </si>
+  <si>
+    <t>Muscel</t>
+  </si>
+  <si>
+    <t>Dâmbovița</t>
+  </si>
+  <si>
+    <t>Prahova</t>
+  </si>
+  <si>
+    <t>Săcuieni</t>
+  </si>
+  <si>
+    <t>Buzău</t>
+  </si>
+  <si>
+    <t>Slam Râmnic</t>
+  </si>
+  <si>
+    <t>Brăila</t>
+  </si>
+  <si>
+    <t>Teleorman</t>
+  </si>
+  <si>
+    <t>Vlașca</t>
+  </si>
+  <si>
+    <t>Floci</t>
+  </si>
+  <si>
+    <t>Lichirești</t>
+  </si>
+  <si>
+    <t>Coconi</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>olt</t>
+  </si>
+  <si>
+    <t>prahova</t>
+  </si>
+  <si>
+    <t>teleorman</t>
+  </si>
+  <si>
+    <t>(92, 217, 69)</t>
+  </si>
+  <si>
+    <t>(219, 136, 111)</t>
+  </si>
+  <si>
+    <t>arges</t>
+  </si>
+  <si>
+    <t>(217, 170, 6)</t>
+  </si>
+  <si>
+    <t>muscel</t>
+  </si>
+  <si>
+    <t>(80, 248, 54)</t>
+  </si>
+  <si>
+    <t>(184, 73, 65)</t>
+  </si>
+  <si>
+    <t>vlasca</t>
+  </si>
+  <si>
+    <t>(69, 161, 25)</t>
+  </si>
+  <si>
+    <t>braila</t>
+  </si>
+  <si>
+    <t>(106, 247, 25)</t>
+  </si>
+  <si>
+    <t>slam_ramnic</t>
+  </si>
+  <si>
+    <t>(87, 250, 29)</t>
+  </si>
+  <si>
+    <t>lichiresti</t>
+  </si>
+  <si>
+    <t>(245, 164, 34)</t>
+  </si>
+  <si>
+    <t>floci</t>
+  </si>
+  <si>
+    <t>(193, 98, 27)</t>
+  </si>
+  <si>
+    <t>bucharest</t>
+  </si>
+  <si>
+    <t>coconi</t>
+  </si>
+  <si>
+    <t>(113, 78, 31)</t>
+  </si>
+  <si>
+    <t>(204, 146, 55)</t>
+  </si>
+  <si>
+    <t>buzau</t>
+  </si>
+  <si>
+    <t>(180, 83, 0)</t>
+  </si>
+  <si>
+    <t>sacuieni</t>
+  </si>
+  <si>
+    <t>(210, 238, 32)</t>
+  </si>
+  <si>
+    <t>(64, 201, 17)</t>
+  </si>
+  <si>
+    <t>dambovita</t>
+  </si>
+  <si>
+    <t>Tighina</t>
+  </si>
+  <si>
+    <t>Cetatea Albă</t>
+  </si>
+  <si>
+    <t>Chilia</t>
+  </si>
+  <si>
+    <t>chilia</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>ismail</t>
+  </si>
+  <si>
+    <t>Palada</t>
+  </si>
+  <si>
+    <t>bolgrad</t>
+  </si>
+  <si>
+    <t>akkerman</t>
+  </si>
+  <si>
+    <t>bender</t>
+  </si>
+  <si>
+    <t>Khan Qışlav</t>
+  </si>
+  <si>
+    <t>khan_qislav</t>
+  </si>
+  <si>
+    <t>Reni</t>
+  </si>
+  <si>
+    <t>reni</t>
+  </si>
+  <si>
+    <t>Căușeni</t>
+  </si>
+  <si>
+    <t>causeni</t>
+  </si>
+  <si>
+    <t>(215, 250, 9)</t>
+  </si>
+  <si>
+    <t>(154, 117, 73)</t>
+  </si>
+  <si>
+    <t>(237, 212, 43)</t>
+  </si>
+  <si>
+    <t>(132, 198, 35)</t>
+  </si>
+  <si>
+    <t>(209, 158, 220)</t>
+  </si>
+  <si>
+    <t>(116, 130, 6)</t>
+  </si>
+  <si>
+    <t>(198, 130, 58)</t>
+  </si>
+  <si>
+    <t>(248, 100, 29)</t>
+  </si>
+  <si>
+    <t>Hotin</t>
+  </si>
+  <si>
+    <t>Dorohoi</t>
+  </si>
+  <si>
+    <t>Hârlău</t>
+  </si>
+  <si>
+    <t>Cernăuţi</t>
+  </si>
+  <si>
+    <t>chernivtsi</t>
+  </si>
+  <si>
+    <t>dorohoi</t>
+  </si>
+  <si>
+    <t>harlau</t>
+  </si>
+  <si>
+    <t>hotin</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>suceava</t>
+  </si>
+  <si>
+    <t>Neamț</t>
+  </si>
+  <si>
+    <t>Bacău</t>
+  </si>
+  <si>
+    <t>bacau</t>
+  </si>
+  <si>
+    <t>Lipcani</t>
+  </si>
+  <si>
+    <t>lipcani</t>
+  </si>
+  <si>
+    <t>Ștefănești</t>
+  </si>
+  <si>
+    <t>stefanesti</t>
+  </si>
+  <si>
+    <t>Vășcăuți</t>
+  </si>
+  <si>
+    <t>vascauti</t>
+  </si>
+  <si>
+    <t>Câmpulung</t>
+  </si>
+  <si>
+    <t>campulung_moldovenesc</t>
+  </si>
+  <si>
+    <t>Piatra</t>
+  </si>
+  <si>
+    <t>piatra_neamt</t>
+  </si>
+  <si>
+    <t>(227, 167, 205)</t>
+  </si>
+  <si>
+    <t>(151, 206, 48)</t>
+  </si>
+  <si>
+    <t>(78, 187, 72)</t>
+  </si>
+  <si>
+    <t>(126, 127, 18)</t>
+  </si>
+  <si>
+    <t>(145, 206, 31)</t>
+  </si>
+  <si>
+    <t>(121, 90, 38)</t>
+  </si>
+  <si>
+    <t>(147, 94, 10)</t>
+  </si>
+  <si>
+    <t>(130, 235, 34)</t>
+  </si>
+  <si>
+    <t>(227, 219, 167)</t>
+  </si>
+  <si>
+    <t>(222, 213, 149)</t>
+  </si>
+  <si>
+    <t>targu_neamt</t>
+  </si>
+  <si>
+    <t>(223, 55, 68)</t>
+  </si>
+  <si>
+    <t>(231, 80, 26)</t>
+  </si>
+  <si>
+    <t>Iași</t>
+  </si>
+  <si>
+    <t>iasi</t>
+  </si>
+  <si>
+    <t>Cârligătura</t>
+  </si>
+  <si>
+    <t>carligatura</t>
+  </si>
+  <si>
+    <t>Fălciu</t>
+  </si>
+  <si>
+    <t>falciu</t>
+  </si>
+  <si>
+    <t>Lăpușna</t>
+  </si>
+  <si>
+    <t>lapusna</t>
+  </si>
+  <si>
+    <t>Orhei</t>
+  </si>
+  <si>
+    <t>orhei</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>roman</t>
+  </si>
+  <si>
+    <t>Soroca</t>
+  </si>
+  <si>
+    <t>soroca</t>
+  </si>
+  <si>
+    <t>Tecuci</t>
+  </si>
+  <si>
+    <t>tecuci</t>
+  </si>
+  <si>
+    <t>Tutova</t>
+  </si>
+  <si>
+    <t>tutova</t>
+  </si>
+  <si>
+    <t>Vaslui</t>
+  </si>
+  <si>
+    <t>vaslui</t>
+  </si>
+  <si>
+    <t>Tigheci</t>
+  </si>
+  <si>
+    <t>tigheci</t>
+  </si>
+  <si>
+    <t>Trotuș</t>
+  </si>
+  <si>
+    <t>Putna</t>
+  </si>
+  <si>
+    <t>putna</t>
+  </si>
+  <si>
+    <t>Adjud</t>
+  </si>
+  <si>
+    <t>adjud</t>
+  </si>
+  <si>
+    <t>trotus</t>
+  </si>
+  <si>
+    <t>(192, 65, 66)</t>
+  </si>
+  <si>
+    <t>(254, 148, 27)</t>
+  </si>
+  <si>
+    <t>(93, 168, 37)</t>
+  </si>
+  <si>
+    <t>(189, 191, 4)</t>
+  </si>
+  <si>
+    <t>(219, 239, 57)</t>
+  </si>
+  <si>
+    <t>(237, 121, 17)</t>
+  </si>
+  <si>
+    <t>(167, 150, 35)</t>
+  </si>
+  <si>
+    <t>(232, 247, 48)</t>
+  </si>
+  <si>
+    <t>(139, 203, 35)</t>
+  </si>
+  <si>
+    <t>(138, 163, 51)</t>
+  </si>
+  <si>
+    <t>(154, 170, 18)</t>
+  </si>
+  <si>
+    <t>covurlui</t>
+  </si>
+  <si>
+    <t>Covurlui</t>
+  </si>
+  <si>
+    <t>(219, 141, 2)</t>
+  </si>
+  <si>
+    <t>(189, 168, 30)</t>
+  </si>
+  <si>
+    <t>(216, 166, 49)</t>
+  </si>
+  <si>
+    <t>(114, 138, 64)</t>
+  </si>
+  <si>
+    <t>(255, 220, 9)</t>
+  </si>
+  <si>
+    <t>Virovitica</t>
+  </si>
+  <si>
+    <t>virovitica</t>
+  </si>
+  <si>
     <t>codename_county</t>
   </si>
   <si>
     <t>codename_barony</t>
+  </si>
+  <si>
+    <t>holding_type</t>
+  </si>
+  <si>
+    <t>government</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2284,14 +2836,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2331,11 +2886,1222 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="294">
+  <dxfs count="415">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5586,10 +7352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,24 +7367,30 @@
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5635,7 +7407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +7424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5669,7 +7441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5686,7 +7458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +7475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5720,7 +7492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5737,7 +7509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5754,7 +7526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -5771,7 +7543,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5788,7 +7560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -5805,7 +7577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5822,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -5839,7 +7611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5856,7 +7628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6640,7 +8412,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
         <v>181</v>
@@ -6657,7 +8429,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>589</v>
       </c>
       <c r="B63" t="s">
         <v>200</v>
@@ -6674,7 +8446,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>198</v>
@@ -6725,7 +8497,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>183</v>
@@ -6793,7 +8565,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
         <v>185</v>
@@ -6810,526 +8582,526 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" t="s">
         <v>231</v>
       </c>
-      <c r="D72" t="s">
-        <v>232</v>
-      </c>
       <c r="E72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" t="s">
         <v>223</v>
       </c>
-      <c r="D73" t="s">
-        <v>224</v>
-      </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
         <v>215</v>
       </c>
-      <c r="D74" t="s">
-        <v>216</v>
-      </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
         <v>241</v>
       </c>
-      <c r="D75" t="s">
-        <v>242</v>
-      </c>
       <c r="E75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
         <v>213</v>
       </c>
-      <c r="D76" t="s">
-        <v>214</v>
-      </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" t="s">
         <v>233</v>
       </c>
-      <c r="D77" t="s">
-        <v>234</v>
-      </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" t="s">
         <v>229</v>
       </c>
-      <c r="D78" t="s">
-        <v>230</v>
-      </c>
       <c r="E78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" t="s">
         <v>227</v>
       </c>
-      <c r="D79" t="s">
-        <v>228</v>
-      </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" t="s">
         <v>235</v>
       </c>
-      <c r="D80" t="s">
-        <v>236</v>
-      </c>
       <c r="E80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" t="s">
         <v>221</v>
       </c>
-      <c r="D81" t="s">
-        <v>222</v>
-      </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" t="s">
         <v>217</v>
       </c>
-      <c r="D82" t="s">
-        <v>218</v>
-      </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" t="s">
         <v>225</v>
       </c>
-      <c r="D83" t="s">
-        <v>226</v>
-      </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" t="s">
         <v>237</v>
       </c>
-      <c r="D84" t="s">
-        <v>238</v>
-      </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" t="s">
         <v>219</v>
       </c>
-      <c r="D85" t="s">
-        <v>220</v>
-      </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" t="s">
         <v>239</v>
       </c>
-      <c r="D86" t="s">
-        <v>240</v>
-      </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>771</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>773</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>772</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>773</v>
       </c>
       <c r="E99" t="s">
-        <v>298</v>
+        <v>772</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" t="s">
         <v>300</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E102" t="s">
         <v>300</v>
@@ -7337,597 +9109,597 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D103" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E103" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E104" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E105" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E109" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E110" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C111" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="D112" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E112" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="E113" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="E114" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E115" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C116" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E116" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="D117" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D118" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C119" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E119" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E120" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D121" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E121" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E122" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D123" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E123" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E124" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C125" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D125" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D126" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E126" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="E127" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B128" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C128" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E128" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C129" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="D129" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="E129" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D130" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E130" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B131" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C131" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E131" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B132" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D132" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E132" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B133" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C133" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="E133" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B134" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D134" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E134" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C135" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E135" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D136" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E136" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="C137" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="D137" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E137" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,285 +9707,285 @@
         <v>405</v>
       </c>
       <c r="B138" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C138" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="E138" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D140" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E140" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B141" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C141" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D141" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E141" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="C142" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="D142" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="E142" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E143" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B144" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C144" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D144" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E144" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="B145" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="E145" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B146" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D146" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E146" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B147" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D147" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E147" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B148" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D148" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E148" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B149" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="C149" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D149" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="E149" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B151" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B152" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C152" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D152" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E152" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C153" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="E153" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
         <v>429</v>
       </c>
       <c r="D154" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E154" t="s">
         <v>429</v>
@@ -8221,1634 +9993,3017 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D155" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B156" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C156" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="E156" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="B157" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="D157" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="E157" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B158" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C158" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="D158" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E158" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B159" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D159" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E159" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B160" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C160" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D160" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E160" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B161" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D161" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E161" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B162" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C162" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D162" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E162" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B163" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C163" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D163" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E163" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E164" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B165" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C165" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D165" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="E165" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>508</v>
+      </c>
+      <c r="B166" t="s">
         <v>507</v>
       </c>
-      <c r="B166" t="s">
-        <v>506</v>
-      </c>
       <c r="C166" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D166" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E166" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B167" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C167" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D167" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E167" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="B168" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C168" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D168" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="E168" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="B169" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C169" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D169" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E169" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B170" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D170" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E170" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B171" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D171" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E171" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="B172" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="C172" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="D172" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="E172" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B173" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C173" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D173" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E173" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>533</v>
+      </c>
+      <c r="B174" t="s">
         <v>531</v>
       </c>
-      <c r="B174" t="s">
-        <v>526</v>
-      </c>
       <c r="C174" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D174" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E174" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B175" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C175" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D175" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E175" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B176" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C176" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="D176" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E176" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B177" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="C177" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D177" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E177" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>538</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
+      </c>
+      <c r="C178" t="s">
         <v>536</v>
       </c>
-      <c r="B178" t="s">
-        <v>518</v>
-      </c>
-      <c r="C178" t="s">
-        <v>517</v>
-      </c>
       <c r="D178" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="E178" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B179" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C179" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D179" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E179" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B180" t="s">
+        <v>523</v>
+      </c>
+      <c r="C180" t="s">
         <v>522</v>
       </c>
-      <c r="C180" t="s">
-        <v>521</v>
-      </c>
       <c r="D180" t="s">
+        <v>523</v>
+      </c>
+      <c r="E180" t="s">
         <v>522</v>
-      </c>
-      <c r="E180" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B181" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D181" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E181" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B182" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C182" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D182" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E182" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B183" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="C183" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="D183" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="E183" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="B184" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C184" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="D184" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="E184" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B185" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C185" t="s">
+        <v>556</v>
+      </c>
+      <c r="D185" t="s">
         <v>557</v>
       </c>
-      <c r="D185" t="s">
-        <v>558</v>
-      </c>
       <c r="E185" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B186" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C186" t="s">
+        <v>550</v>
+      </c>
+      <c r="D186" t="s">
         <v>551</v>
       </c>
-      <c r="D186" t="s">
-        <v>552</v>
-      </c>
       <c r="E186" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C187" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D187" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E187" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B188" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C188" t="s">
+        <v>554</v>
+      </c>
+      <c r="D188" t="s">
         <v>555</v>
       </c>
-      <c r="D188" t="s">
-        <v>556</v>
-      </c>
       <c r="E188" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C189" t="s">
+        <v>560</v>
+      </c>
+      <c r="D189" t="s">
         <v>561</v>
       </c>
-      <c r="D189" t="s">
-        <v>562</v>
-      </c>
       <c r="E189" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B190" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C190" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D190" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E190" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B191" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C191" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D191" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E191" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B192" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C192" t="s">
+        <v>558</v>
+      </c>
+      <c r="D192" t="s">
         <v>559</v>
       </c>
-      <c r="D192" t="s">
-        <v>560</v>
-      </c>
       <c r="E192" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B193" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C193" t="s">
+        <v>552</v>
+      </c>
+      <c r="D193" t="s">
         <v>553</v>
       </c>
-      <c r="D193" t="s">
-        <v>554</v>
-      </c>
       <c r="E193" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B194" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C194" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D194" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E194" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B195" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C195" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D195" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E195" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>572</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C196" t="s">
         <v>590</v>
       </c>
-      <c r="B196" t="s">
-        <v>589</v>
-      </c>
-      <c r="C196" t="s">
-        <v>588</v>
-      </c>
-      <c r="D196" t="s">
-        <v>589</v>
+      <c r="D196" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="E196" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="C197" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="D197" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="E197" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B198" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="C198" t="s">
+        <v>619</v>
+      </c>
+      <c r="D198" t="s">
+        <v>620</v>
+      </c>
+      <c r="E198" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>573</v>
+      </c>
+      <c r="B199" t="s">
         <v>549</v>
       </c>
-      <c r="D198" t="s">
-        <v>550</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="C199" t="s">
+        <v>548</v>
+      </c>
+      <c r="D199" t="s">
         <v>549</v>
       </c>
+      <c r="E199" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>613</v>
+      </c>
+      <c r="B200" t="s">
+        <v>607</v>
+      </c>
+      <c r="C200" t="s">
+        <v>606</v>
+      </c>
+      <c r="D200" t="s">
+        <v>607</v>
+      </c>
+      <c r="E200" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>617</v>
+      </c>
+      <c r="B201" t="s">
+        <v>605</v>
+      </c>
+      <c r="C201" t="s">
+        <v>604</v>
+      </c>
+      <c r="D201" t="s">
+        <v>605</v>
+      </c>
+      <c r="E201" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>618</v>
+      </c>
+      <c r="B202" t="s">
+        <v>597</v>
+      </c>
+      <c r="C202" t="s">
+        <v>596</v>
+      </c>
+      <c r="D202" t="s">
+        <v>597</v>
+      </c>
+      <c r="E202" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>610</v>
+      </c>
+      <c r="B203" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" t="s">
+        <v>602</v>
+      </c>
+      <c r="D203" t="s">
+        <v>603</v>
+      </c>
+      <c r="E203" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>614</v>
+      </c>
+      <c r="B204" t="s">
+        <v>593</v>
+      </c>
+      <c r="C204" t="s">
+        <v>592</v>
+      </c>
+      <c r="D204" t="s">
+        <v>593</v>
+      </c>
+      <c r="E204" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>616</v>
+      </c>
+      <c r="B205" t="s">
+        <v>595</v>
+      </c>
+      <c r="C205" t="s">
+        <v>594</v>
+      </c>
+      <c r="D205" t="s">
+        <v>595</v>
+      </c>
+      <c r="E205" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>615</v>
+      </c>
+      <c r="B206" t="s">
+        <v>609</v>
+      </c>
+      <c r="C206" t="s">
+        <v>608</v>
+      </c>
+      <c r="D206" t="s">
+        <v>609</v>
+      </c>
+      <c r="E206" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>612</v>
+      </c>
+      <c r="B207" t="s">
+        <v>599</v>
+      </c>
+      <c r="C207" t="s">
+        <v>598</v>
+      </c>
+      <c r="D207" t="s">
+        <v>599</v>
+      </c>
+      <c r="E207" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>611</v>
+      </c>
+      <c r="B208" t="s">
+        <v>601</v>
+      </c>
+      <c r="C208" t="s">
+        <v>600</v>
+      </c>
+      <c r="D208" t="s">
+        <v>601</v>
+      </c>
+      <c r="E208" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>642</v>
+      </c>
+      <c r="B209" t="s">
+        <v>641</v>
+      </c>
+      <c r="C209" t="s">
+        <v>622</v>
+      </c>
+      <c r="D209" t="s">
+        <v>641</v>
+      </c>
+      <c r="E209" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>647</v>
+      </c>
+      <c r="B210" t="s">
+        <v>648</v>
+      </c>
+      <c r="C210" t="s">
+        <v>629</v>
+      </c>
+      <c r="D210" t="s">
+        <v>648</v>
+      </c>
+      <c r="E210" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>655</v>
+      </c>
+      <c r="B211" t="s">
+        <v>656</v>
+      </c>
+      <c r="C211" t="s">
+        <v>635</v>
+      </c>
+      <c r="D211" t="s">
+        <v>656</v>
+      </c>
+      <c r="E211" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>659</v>
+      </c>
+      <c r="B212" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" t="s">
+        <v>627</v>
+      </c>
+      <c r="D212" t="s">
+        <v>660</v>
+      </c>
+      <c r="E212" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>658</v>
+      </c>
+      <c r="B213" t="s">
+        <v>657</v>
+      </c>
+      <c r="C213" t="s">
+        <v>634</v>
+      </c>
+      <c r="D213" t="s">
+        <v>657</v>
+      </c>
+      <c r="E213" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>664</v>
+      </c>
+      <c r="B214" t="s">
+        <v>665</v>
+      </c>
+      <c r="C214" t="s">
+        <v>624</v>
+      </c>
+      <c r="D214" t="s">
+        <v>665</v>
+      </c>
+      <c r="E214" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>653</v>
+      </c>
+      <c r="B215" t="s">
+        <v>654</v>
+      </c>
+      <c r="C215" t="s">
+        <v>632</v>
+      </c>
+      <c r="D215" t="s">
+        <v>654</v>
+      </c>
+      <c r="E215" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>651</v>
+      </c>
+      <c r="B216" t="s">
+        <v>652</v>
+      </c>
+      <c r="C216" t="s">
+        <v>633</v>
+      </c>
+      <c r="D216" t="s">
+        <v>652</v>
+      </c>
+      <c r="E216" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>644</v>
+      </c>
+      <c r="B217" t="s">
+        <v>643</v>
+      </c>
+      <c r="C217" t="s">
+        <v>623</v>
+      </c>
+      <c r="D217" t="s">
+        <v>643</v>
+      </c>
+      <c r="E217" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>639</v>
+      </c>
+      <c r="B218" t="s">
+        <v>636</v>
+      </c>
+      <c r="C218" t="s">
+        <v>621</v>
+      </c>
+      <c r="D218" t="s">
+        <v>636</v>
+      </c>
+      <c r="E218" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>663</v>
+      </c>
+      <c r="B219" t="s">
+        <v>637</v>
+      </c>
+      <c r="C219" t="s">
+        <v>625</v>
+      </c>
+      <c r="D219" t="s">
+        <v>637</v>
+      </c>
+      <c r="E219" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>661</v>
+      </c>
+      <c r="B220" t="s">
+        <v>662</v>
+      </c>
+      <c r="C220" t="s">
+        <v>626</v>
+      </c>
+      <c r="D220" t="s">
+        <v>662</v>
+      </c>
+      <c r="E220" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>649</v>
+      </c>
+      <c r="B221" t="s">
+        <v>650</v>
+      </c>
+      <c r="C221" t="s">
+        <v>628</v>
+      </c>
+      <c r="D221" t="s">
+        <v>650</v>
+      </c>
+      <c r="E221" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>640</v>
+      </c>
+      <c r="B222" t="s">
+        <v>638</v>
+      </c>
+      <c r="C222" t="s">
+        <v>630</v>
+      </c>
+      <c r="D222" t="s">
+        <v>638</v>
+      </c>
+      <c r="E222" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>645</v>
+      </c>
+      <c r="B223" t="s">
+        <v>646</v>
+      </c>
+      <c r="C223" t="s">
+        <v>631</v>
+      </c>
+      <c r="D223" t="s">
+        <v>646</v>
+      </c>
+      <c r="E223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>683</v>
+      </c>
+      <c r="B224" t="s">
+        <v>681</v>
+      </c>
+      <c r="C224" t="s">
+        <v>680</v>
+      </c>
+      <c r="D224" t="s">
+        <v>681</v>
+      </c>
+      <c r="E224" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>685</v>
+      </c>
+      <c r="B225" t="s">
+        <v>674</v>
+      </c>
+      <c r="C225" t="s">
+        <v>667</v>
+      </c>
+      <c r="D225" t="s">
+        <v>674</v>
+      </c>
+      <c r="E225" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>686</v>
+      </c>
+      <c r="B226" t="s">
+        <v>669</v>
+      </c>
+      <c r="C226" t="s">
+        <v>668</v>
+      </c>
+      <c r="D226" t="s">
+        <v>669</v>
+      </c>
+      <c r="E226" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>687</v>
+      </c>
+      <c r="B227" t="s">
+        <v>671</v>
+      </c>
+      <c r="C227" t="s">
+        <v>670</v>
+      </c>
+      <c r="D227" t="s">
+        <v>671</v>
+      </c>
+      <c r="E227" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>684</v>
+      </c>
+      <c r="B228" t="s">
+        <v>677</v>
+      </c>
+      <c r="C228" t="s">
+        <v>676</v>
+      </c>
+      <c r="D228" t="s">
+        <v>677</v>
+      </c>
+      <c r="E228" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>689</v>
+      </c>
+      <c r="B229" t="s">
+        <v>673</v>
+      </c>
+      <c r="C229" t="s">
+        <v>672</v>
+      </c>
+      <c r="D229" t="s">
+        <v>673</v>
+      </c>
+      <c r="E229" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" t="s">
+        <v>679</v>
+      </c>
+      <c r="C230" t="s">
+        <v>678</v>
+      </c>
+      <c r="D230" t="s">
+        <v>679</v>
+      </c>
+      <c r="E230" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>682</v>
+      </c>
+      <c r="B231" t="s">
+        <v>675</v>
+      </c>
+      <c r="C231" t="s">
+        <v>666</v>
+      </c>
+      <c r="D231" t="s">
+        <v>675</v>
+      </c>
+      <c r="E231" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>725</v>
+      </c>
+      <c r="B232" t="s">
+        <v>702</v>
+      </c>
+      <c r="C232" t="s">
+        <v>701</v>
+      </c>
+      <c r="D232" t="s">
+        <v>702</v>
+      </c>
+      <c r="E232" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>721</v>
+      </c>
+      <c r="B233" t="s">
+        <v>710</v>
+      </c>
+      <c r="C233" t="s">
+        <v>709</v>
+      </c>
+      <c r="D233" t="s">
+        <v>710</v>
+      </c>
+      <c r="E233" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>714</v>
+      </c>
+      <c r="B234" t="s">
+        <v>694</v>
+      </c>
+      <c r="C234" t="s">
+        <v>693</v>
+      </c>
+      <c r="D234" t="s">
+        <v>694</v>
+      </c>
+      <c r="E234" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>718</v>
+      </c>
+      <c r="B235" t="s">
+        <v>695</v>
+      </c>
+      <c r="C235" t="s">
+        <v>691</v>
+      </c>
+      <c r="D235" t="s">
+        <v>695</v>
+      </c>
+      <c r="E235" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>719</v>
+      </c>
+      <c r="B236" t="s">
+        <v>696</v>
+      </c>
+      <c r="C236" t="s">
+        <v>692</v>
+      </c>
+      <c r="D236" t="s">
+        <v>696</v>
+      </c>
+      <c r="E236" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>715</v>
+      </c>
+      <c r="B237" t="s">
+        <v>697</v>
+      </c>
+      <c r="C237" t="s">
+        <v>690</v>
+      </c>
+      <c r="D237" t="s">
+        <v>697</v>
+      </c>
+      <c r="E237" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>716</v>
+      </c>
+      <c r="B238" t="s">
+        <v>704</v>
+      </c>
+      <c r="C238" t="s">
+        <v>703</v>
+      </c>
+      <c r="D238" t="s">
+        <v>704</v>
+      </c>
+      <c r="E238" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>722</v>
+      </c>
+      <c r="B239" t="s">
+        <v>723</v>
+      </c>
+      <c r="C239" t="s">
+        <v>700</v>
+      </c>
+      <c r="D239" t="s">
+        <v>723</v>
+      </c>
+      <c r="E239" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>724</v>
+      </c>
+      <c r="B240" t="s">
+        <v>712</v>
+      </c>
+      <c r="C240" t="s">
+        <v>711</v>
+      </c>
+      <c r="D240" t="s">
+        <v>712</v>
+      </c>
+      <c r="E240" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>717</v>
+      </c>
+      <c r="B241" t="s">
+        <v>706</v>
+      </c>
+      <c r="C241" t="s">
+        <v>705</v>
+      </c>
+      <c r="D241" t="s">
+        <v>706</v>
+      </c>
+      <c r="E241" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>720</v>
+      </c>
+      <c r="B242" t="s">
+        <v>699</v>
+      </c>
+      <c r="C242" t="s">
+        <v>698</v>
+      </c>
+      <c r="D242" t="s">
+        <v>699</v>
+      </c>
+      <c r="E242" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>713</v>
+      </c>
+      <c r="B243" t="s">
+        <v>708</v>
+      </c>
+      <c r="C243" t="s">
+        <v>707</v>
+      </c>
+      <c r="D243" t="s">
+        <v>708</v>
+      </c>
+      <c r="E243" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>768</v>
+      </c>
+      <c r="B244" t="s">
+        <v>752</v>
+      </c>
+      <c r="C244" t="s">
+        <v>751</v>
+      </c>
+      <c r="D244" t="s">
+        <v>752</v>
+      </c>
+      <c r="E244" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>758</v>
+      </c>
+      <c r="B245" t="s">
+        <v>729</v>
+      </c>
+      <c r="C245" t="s">
+        <v>728</v>
+      </c>
+      <c r="D245" t="s">
+        <v>729</v>
+      </c>
+      <c r="E245" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>767</v>
+      </c>
+      <c r="B246" t="s">
+        <v>765</v>
+      </c>
+      <c r="C246" t="s">
+        <v>766</v>
+      </c>
+      <c r="D246" t="s">
+        <v>765</v>
+      </c>
+      <c r="E246" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>762</v>
+      </c>
+      <c r="B247" t="s">
+        <v>731</v>
+      </c>
+      <c r="C247" t="s">
+        <v>730</v>
+      </c>
+      <c r="D247" t="s">
+        <v>731</v>
+      </c>
+      <c r="E247" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>759</v>
+      </c>
+      <c r="B248" t="s">
+        <v>727</v>
+      </c>
+      <c r="C248" t="s">
+        <v>726</v>
+      </c>
+      <c r="D248" t="s">
+        <v>727</v>
+      </c>
+      <c r="E248" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>755</v>
+      </c>
+      <c r="B249" t="s">
+        <v>733</v>
+      </c>
+      <c r="C249" t="s">
+        <v>732</v>
+      </c>
+      <c r="D249" t="s">
+        <v>733</v>
+      </c>
+      <c r="E249" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>756</v>
+      </c>
+      <c r="B250" t="s">
+        <v>735</v>
+      </c>
+      <c r="C250" t="s">
+        <v>734</v>
+      </c>
+      <c r="D250" t="s">
+        <v>735</v>
+      </c>
+      <c r="E250" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>769</v>
+      </c>
+      <c r="B251" t="s">
+        <v>750</v>
+      </c>
+      <c r="C251" t="s">
+        <v>749</v>
+      </c>
+      <c r="D251" t="s">
+        <v>750</v>
+      </c>
+      <c r="E251" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>760</v>
+      </c>
+      <c r="B252" t="s">
+        <v>737</v>
+      </c>
+      <c r="C252" t="s">
+        <v>736</v>
+      </c>
+      <c r="D252" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>757</v>
+      </c>
+      <c r="B253" t="s">
+        <v>739</v>
+      </c>
+      <c r="C253" t="s">
+        <v>738</v>
+      </c>
+      <c r="D253" t="s">
+        <v>739</v>
+      </c>
+      <c r="E253" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>770</v>
+      </c>
+      <c r="B254" t="s">
+        <v>741</v>
+      </c>
+      <c r="C254" t="s">
+        <v>740</v>
+      </c>
+      <c r="D254" t="s">
+        <v>741</v>
+      </c>
+      <c r="E254" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>754</v>
+      </c>
+      <c r="B255" t="s">
+        <v>747</v>
+      </c>
+      <c r="C255" t="s">
+        <v>746</v>
+      </c>
+      <c r="D255" t="s">
+        <v>747</v>
+      </c>
+      <c r="E255" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>761</v>
+      </c>
+      <c r="B256" t="s">
+        <v>753</v>
+      </c>
+      <c r="C256" t="s">
+        <v>748</v>
+      </c>
+      <c r="D256" t="s">
+        <v>753</v>
+      </c>
+      <c r="E256" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>764</v>
+      </c>
+      <c r="B257" t="s">
+        <v>743</v>
+      </c>
+      <c r="C257" t="s">
+        <v>742</v>
+      </c>
+      <c r="D257" t="s">
+        <v>743</v>
+      </c>
+      <c r="E257" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>763</v>
+      </c>
+      <c r="B258" t="s">
+        <v>745</v>
+      </c>
+      <c r="C258" t="s">
+        <v>744</v>
+      </c>
+      <c r="D258" t="s">
+        <v>745</v>
+      </c>
+      <c r="E258" t="s">
+        <v>744</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A200:A1048576 A1:A2 A7:A21">
-    <cfRule type="duplicateValues" dxfId="293" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:A1048576 A2 A7:A21">
-    <cfRule type="duplicateValues" dxfId="292" priority="329"/>
+  <conditionalFormatting sqref="A259:A1048576 A2 A7:A21">
+    <cfRule type="duplicateValues" dxfId="414" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259:A1048576 A2 A7:A21">
+    <cfRule type="duplicateValues" dxfId="413" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="291" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="411" priority="417"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="410" priority="414"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="409" priority="415"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="408" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="407" priority="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="406" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="405" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="404" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="403" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="402" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="401" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="400" priority="404"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="399" priority="405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="398" priority="402"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="397" priority="403"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="396" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="395" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="394" priority="398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="393" priority="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="392" priority="396"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="391" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="390" priority="394"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="389" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="388" priority="392"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="387" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="386" priority="390"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="385" priority="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="384" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="383" priority="387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="382" priority="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="381" priority="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="380" priority="382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="379" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="378" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="377" priority="381"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="376" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="375" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="374" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="373" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="372" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="371" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="370" priority="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="369" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="duplicateValues" dxfId="368" priority="370"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="duplicateValues" dxfId="367" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="366" priority="368"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="365" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="364" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="363" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="362" priority="364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="361" priority="365"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="duplicateValues" dxfId="360" priority="362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="duplicateValues" dxfId="359" priority="363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="duplicateValues" dxfId="358" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="duplicateValues" dxfId="357" priority="361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="duplicateValues" dxfId="356" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="duplicateValues" dxfId="355" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="354" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="353" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="352" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="351" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="duplicateValues" dxfId="350" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="duplicateValues" dxfId="349" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="348" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="347" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="346" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="345" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="344" priority="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="343" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="342" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="341" priority="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A99">
+    <cfRule type="duplicateValues" dxfId="340" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A99">
+    <cfRule type="duplicateValues" dxfId="339" priority="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="338" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="337" priority="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="336" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="335" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="duplicateValues" dxfId="334" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="duplicateValues" dxfId="333" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="332" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="331" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="330" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="329" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="328" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="327" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="326" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="325" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="324" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="323" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="duplicateValues" dxfId="322" priority="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="duplicateValues" dxfId="321" priority="325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="320" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="319" priority="323"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="318" priority="320"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="317" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="316" priority="318"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="315" priority="319"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="314" priority="316"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="313" priority="317"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="312" priority="314"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="311" priority="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="310" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="309" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="308" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="307" priority="311"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="306" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="305" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="304" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="303" priority="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="302" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="301" priority="305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="300" priority="302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="299" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="298" priority="300"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="297" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="duplicateValues" dxfId="296" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="duplicateValues" dxfId="295" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="294" priority="296"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="293" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="292" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="291" priority="295"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
     <cfRule type="duplicateValues" dxfId="290" priority="292"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="289" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="289" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
     <cfRule type="duplicateValues" dxfId="288" priority="290"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="287" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="287" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
     <cfRule type="duplicateValues" dxfId="286" priority="288"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="285" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="285" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
     <cfRule type="duplicateValues" dxfId="284" priority="286"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="283" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="283" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
     <cfRule type="duplicateValues" dxfId="282" priority="284"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="281" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="281" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
     <cfRule type="duplicateValues" dxfId="280" priority="282"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="279" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A127">
+    <cfRule type="duplicateValues" dxfId="279" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
     <cfRule type="duplicateValues" dxfId="278" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="277" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="277" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
     <cfRule type="duplicateValues" dxfId="276" priority="278"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="275" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="275" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="274" priority="276"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="273" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="273" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
     <cfRule type="duplicateValues" dxfId="272" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="271" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="271" priority="275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
     <cfRule type="duplicateValues" dxfId="270" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="269" priority="269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="269" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
     <cfRule type="duplicateValues" dxfId="268" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="267" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="267" priority="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
     <cfRule type="duplicateValues" dxfId="266" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="265" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="265" priority="269"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
     <cfRule type="duplicateValues" dxfId="264" priority="266"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="duplicateValues" dxfId="263" priority="267"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="duplicateValues" dxfId="262" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="duplicateValues" dxfId="261" priority="265"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="260" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="259" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="duplicateValues" dxfId="258" priority="260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="duplicateValues" dxfId="257" priority="261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="256" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="255" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="duplicateValues" dxfId="254" priority="256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="duplicateValues" dxfId="253" priority="257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="252" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="251" priority="255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="duplicateValues" dxfId="250" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="duplicateValues" dxfId="249" priority="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="duplicateValues" dxfId="248" priority="250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="duplicateValues" dxfId="247" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="duplicateValues" dxfId="246" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="duplicateValues" dxfId="245" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="duplicateValues" dxfId="244" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="duplicateValues" dxfId="243" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="duplicateValues" dxfId="242" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="duplicateValues" dxfId="241" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="240" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="239" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="238" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="237" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="duplicateValues" dxfId="236" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="duplicateValues" dxfId="235" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
+    <cfRule type="duplicateValues" dxfId="234" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
+    <cfRule type="duplicateValues" dxfId="233" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="duplicateValues" dxfId="232" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="duplicateValues" dxfId="231" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="230" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="229" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="duplicateValues" dxfId="228" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="duplicateValues" dxfId="227" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="duplicateValues" dxfId="226" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="duplicateValues" dxfId="225" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="duplicateValues" dxfId="224" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="duplicateValues" dxfId="223" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="duplicateValues" dxfId="222" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="duplicateValues" dxfId="221" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="220" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="219" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="duplicateValues" dxfId="218" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="duplicateValues" dxfId="217" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="duplicateValues" dxfId="216" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="duplicateValues" dxfId="215" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="duplicateValues" dxfId="214" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="duplicateValues" dxfId="213" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156">
+    <cfRule type="duplicateValues" dxfId="212" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156">
+    <cfRule type="duplicateValues" dxfId="211" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="duplicateValues" dxfId="210" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="duplicateValues" dxfId="209" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="duplicateValues" dxfId="208" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="duplicateValues" dxfId="207" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171">
+    <cfRule type="duplicateValues" dxfId="206" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171">
+    <cfRule type="duplicateValues" dxfId="205" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="duplicateValues" dxfId="204" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="duplicateValues" dxfId="203" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="202" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="201" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
+    <cfRule type="duplicateValues" dxfId="200" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
+    <cfRule type="duplicateValues" dxfId="199" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="duplicateValues" dxfId="198" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="duplicateValues" dxfId="197" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160">
+    <cfRule type="duplicateValues" dxfId="196" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160">
+    <cfRule type="duplicateValues" dxfId="195" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="duplicateValues" dxfId="194" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="duplicateValues" dxfId="193" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
+    <cfRule type="duplicateValues" dxfId="192" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
+    <cfRule type="duplicateValues" dxfId="191" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159">
+    <cfRule type="duplicateValues" dxfId="190" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159">
+    <cfRule type="duplicateValues" dxfId="189" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170">
+    <cfRule type="duplicateValues" dxfId="188" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170">
+    <cfRule type="duplicateValues" dxfId="187" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="186" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="185" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
+    <cfRule type="duplicateValues" dxfId="184" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
+    <cfRule type="duplicateValues" dxfId="183" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="181" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="duplicateValues" dxfId="180" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="duplicateValues" dxfId="179" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
+    <cfRule type="duplicateValues" dxfId="178" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
+    <cfRule type="duplicateValues" dxfId="177" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177">
+    <cfRule type="duplicateValues" dxfId="176" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177">
+    <cfRule type="duplicateValues" dxfId="175" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="duplicateValues" dxfId="174" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="duplicateValues" dxfId="172" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
+    <cfRule type="duplicateValues" dxfId="170" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
+    <cfRule type="duplicateValues" dxfId="169" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
+    <cfRule type="duplicateValues" dxfId="168" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
+    <cfRule type="duplicateValues" dxfId="167" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="duplicateValues" dxfId="166" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="duplicateValues" dxfId="165" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="duplicateValues" dxfId="164" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="duplicateValues" dxfId="163" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183">
+    <cfRule type="duplicateValues" dxfId="162" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183">
+    <cfRule type="duplicateValues" dxfId="161" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173">
+    <cfRule type="duplicateValues" dxfId="160" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173">
+    <cfRule type="duplicateValues" dxfId="159" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184">
+    <cfRule type="duplicateValues" dxfId="158" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184">
+    <cfRule type="duplicateValues" dxfId="157" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
+    <cfRule type="duplicateValues" dxfId="156" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
+    <cfRule type="duplicateValues" dxfId="155" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180">
+    <cfRule type="duplicateValues" dxfId="154" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180">
+    <cfRule type="duplicateValues" dxfId="153" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
+    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
+    <cfRule type="duplicateValues" dxfId="151" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="150" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="149" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
+    <cfRule type="duplicateValues" dxfId="148" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
+    <cfRule type="duplicateValues" dxfId="147" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
+    <cfRule type="duplicateValues" dxfId="146" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
+    <cfRule type="duplicateValues" dxfId="145" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="duplicateValues" dxfId="144" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="duplicateValues" dxfId="143" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="duplicateValues" dxfId="142" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="duplicateValues" dxfId="141" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198">
+    <cfRule type="duplicateValues" dxfId="140" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198">
+    <cfRule type="duplicateValues" dxfId="139" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185">
+    <cfRule type="duplicateValues" dxfId="138" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185">
+    <cfRule type="duplicateValues" dxfId="137" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="duplicateValues" dxfId="136" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="duplicateValues" dxfId="135" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
+    <cfRule type="duplicateValues" dxfId="134" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
+    <cfRule type="duplicateValues" dxfId="133" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="132" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="131" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="duplicateValues" dxfId="130" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="duplicateValues" dxfId="129" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A192">
+    <cfRule type="duplicateValues" dxfId="128" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A192">
+    <cfRule type="duplicateValues" dxfId="127" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197">
+    <cfRule type="duplicateValues" dxfId="126" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197">
+    <cfRule type="duplicateValues" dxfId="125" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195">
+    <cfRule type="duplicateValues" dxfId="124" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195">
+    <cfRule type="duplicateValues" dxfId="123" priority="127"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="263" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="262" priority="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="261" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="260" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="259" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="258" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="257" priority="257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="256" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="255" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="254" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="253" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="252" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="251" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="250" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="249" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="248" priority="250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="247" priority="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="246" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="245" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="244" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="243" priority="243"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="242" priority="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="241" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="240" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="239" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="238" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="237" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="236" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="235" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="234" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="233" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="232" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="231" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="230" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="229" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="228" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="227" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="226" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="225" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="224" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="223" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="222" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="221" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="220" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="219" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="218" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="217" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="216" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="215" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="214" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="213" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="212" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="211" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="210" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="209" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="208" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="207" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="206" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="205" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="204" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="203" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="202" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="201" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="200" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="199" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="198" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="197" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="196" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="195" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="194" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="193" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="192" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="191" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="190" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="189" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="188" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="187" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="186" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="185" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="184" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="183" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="181" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="180" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="179" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="178" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="177" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="176" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="175" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="174" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="173" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="172" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="171" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="170" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="169" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="168" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="167" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="166" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="164" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="163" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="162" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="161" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="160" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="158" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="157" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="156" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="155" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="154" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="153" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="151" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="150" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="149" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="148" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="147" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="146" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="145" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="144" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="143" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="142" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="140" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="139" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="138" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="137" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="136" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="duplicateValues" dxfId="135" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="duplicateValues" dxfId="134" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="133" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="132" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="131" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="130" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="129" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="128" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="127" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="126" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" dxfId="125" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" dxfId="124" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="123" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="122" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="121" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="121" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A203">
     <cfRule type="duplicateValues" dxfId="120" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="119" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
+  <conditionalFormatting sqref="A203">
+    <cfRule type="duplicateValues" dxfId="119" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
     <cfRule type="duplicateValues" dxfId="118" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="117" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
+  <conditionalFormatting sqref="A208">
+    <cfRule type="duplicateValues" dxfId="117" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207">
     <cfRule type="duplicateValues" dxfId="116" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="115" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
+  <conditionalFormatting sqref="A207">
+    <cfRule type="duplicateValues" dxfId="115" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200">
     <cfRule type="duplicateValues" dxfId="114" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
+  <conditionalFormatting sqref="A200">
+    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="duplicateValues" dxfId="112" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="111" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
+  <conditionalFormatting sqref="A204">
+    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="duplicateValues" dxfId="110" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="109" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
+  <conditionalFormatting sqref="A206">
+    <cfRule type="duplicateValues" dxfId="109" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="duplicateValues" dxfId="108" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" dxfId="107" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
+  <conditionalFormatting sqref="A205">
+    <cfRule type="duplicateValues" dxfId="107" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201">
     <cfRule type="duplicateValues" dxfId="106" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="105" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
+  <conditionalFormatting sqref="A201">
+    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
     <cfRule type="duplicateValues" dxfId="104" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="103" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
+  <conditionalFormatting sqref="A202">
+    <cfRule type="duplicateValues" dxfId="103" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
     <cfRule type="duplicateValues" dxfId="102" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="101" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
+  <conditionalFormatting sqref="A218">
+    <cfRule type="duplicateValues" dxfId="101" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222">
     <cfRule type="duplicateValues" dxfId="100" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="99" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="99" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209">
     <cfRule type="duplicateValues" dxfId="98" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="97" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+  <conditionalFormatting sqref="A209">
+    <cfRule type="duplicateValues" dxfId="97" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217">
     <cfRule type="duplicateValues" dxfId="96" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
-    <cfRule type="duplicateValues" dxfId="95" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
+  <conditionalFormatting sqref="A217">
+    <cfRule type="duplicateValues" dxfId="95" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223">
     <cfRule type="duplicateValues" dxfId="94" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A154">
-    <cfRule type="duplicateValues" dxfId="93" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154">
+  <conditionalFormatting sqref="A223">
+    <cfRule type="duplicateValues" dxfId="93" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210">
     <cfRule type="duplicateValues" dxfId="92" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="91" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
+  <conditionalFormatting sqref="A210">
+    <cfRule type="duplicateValues" dxfId="91" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="duplicateValues" dxfId="90" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="89" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="89" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A216">
     <cfRule type="duplicateValues" dxfId="88" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
+  <conditionalFormatting sqref="A216">
+    <cfRule type="duplicateValues" dxfId="87" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215">
     <cfRule type="duplicateValues" dxfId="86" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A215">
+    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A211">
     <cfRule type="duplicateValues" dxfId="84" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170">
+  <conditionalFormatting sqref="A211">
+    <cfRule type="duplicateValues" dxfId="83" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213">
     <cfRule type="duplicateValues" dxfId="82" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A168">
-    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168">
+  <conditionalFormatting sqref="A213">
+    <cfRule type="duplicateValues" dxfId="81" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A212">
     <cfRule type="duplicateValues" dxfId="80" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A171">
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171">
+  <conditionalFormatting sqref="A212">
+    <cfRule type="duplicateValues" dxfId="79" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220">
     <cfRule type="duplicateValues" dxfId="78" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="77" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162">
+  <conditionalFormatting sqref="A220">
+    <cfRule type="duplicateValues" dxfId="77" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="duplicateValues" dxfId="76" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A157">
-    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157">
+  <conditionalFormatting sqref="A219">
+    <cfRule type="duplicateValues" dxfId="75" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214">
     <cfRule type="duplicateValues" dxfId="74" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="73" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159">
+  <conditionalFormatting sqref="A214">
+    <cfRule type="duplicateValues" dxfId="73" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A231">
     <cfRule type="duplicateValues" dxfId="72" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="71" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163">
+  <conditionalFormatting sqref="A231">
+    <cfRule type="duplicateValues" dxfId="71" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="duplicateValues" dxfId="70" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
+  <conditionalFormatting sqref="A224">
+    <cfRule type="duplicateValues" dxfId="69" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A228">
     <cfRule type="duplicateValues" dxfId="68" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A158">
-    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158">
+  <conditionalFormatting sqref="A228">
+    <cfRule type="duplicateValues" dxfId="67" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225">
     <cfRule type="duplicateValues" dxfId="66" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A169">
-    <cfRule type="duplicateValues" dxfId="65" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169">
+  <conditionalFormatting sqref="A225">
+    <cfRule type="duplicateValues" dxfId="65" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226">
     <cfRule type="duplicateValues" dxfId="64" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
+  <conditionalFormatting sqref="A226">
+    <cfRule type="duplicateValues" dxfId="63" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A227">
     <cfRule type="duplicateValues" dxfId="62" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166">
+  <conditionalFormatting sqref="A227">
+    <cfRule type="duplicateValues" dxfId="61" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="duplicateValues" dxfId="60" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
+  <conditionalFormatting sqref="A230">
+    <cfRule type="duplicateValues" dxfId="59" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="duplicateValues" dxfId="58" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167">
-    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167">
+  <conditionalFormatting sqref="A229">
+    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243">
     <cfRule type="duplicateValues" dxfId="56" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160">
+  <conditionalFormatting sqref="A243">
+    <cfRule type="duplicateValues" dxfId="55" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234">
     <cfRule type="duplicateValues" dxfId="54" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
+  <conditionalFormatting sqref="A234">
+    <cfRule type="duplicateValues" dxfId="53" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
     <cfRule type="duplicateValues" dxfId="52" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
-    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+  <conditionalFormatting sqref="A237">
+    <cfRule type="duplicateValues" dxfId="51" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A238">
     <cfRule type="duplicateValues" dxfId="50" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174">
+  <conditionalFormatting sqref="A238">
+    <cfRule type="duplicateValues" dxfId="49" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241">
     <cfRule type="duplicateValues" dxfId="48" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173">
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173">
+  <conditionalFormatting sqref="A241">
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A235">
     <cfRule type="duplicateValues" dxfId="46" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180">
+  <conditionalFormatting sqref="A235">
+    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
     <cfRule type="duplicateValues" dxfId="44" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
+  <conditionalFormatting sqref="A236">
+    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A242">
     <cfRule type="duplicateValues" dxfId="42" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177">
+  <conditionalFormatting sqref="A242">
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A233">
+    <cfRule type="duplicateValues" dxfId="39" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A239">
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A239">
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
+    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
+    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232">
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232">
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255">
+    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255">
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A249">
+    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A249">
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250">
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250">
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253">
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253">
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248">
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248">
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252">
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256">
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A251">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A251">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
